--- a/data/scRNA/Tal_GFP/seurat/gene_expression_markers_of_identity_classes/selected_markers/new genes 23.10.21.xlsx
+++ b/data/scRNA/Tal_GFP/seurat/gene_expression_markers_of_identity_classes/selected_markers/new genes 23.10.21.xlsx
@@ -622,7 +622,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -639,6 +639,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFD8CE"/>
         <bgColor rgb="FFDBDBDB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -696,7 +702,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -729,23 +735,27 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -757,7 +767,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -765,15 +775,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -789,7 +807,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -881,7 +899,7 @@
   <dimension ref="B2:Y38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
+      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1044,7 +1062,7 @@
       <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -1053,13 +1071,13 @@
       <c r="E8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="11" t="s">
         <v>26</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="12" t="s">
         <v>28</v>
       </c>
       <c r="I8" s="6" t="s">
@@ -1079,23 +1097,23 @@
       <c r="D9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="15" t="s">
         <v>35</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="12" t="s">
         <v>37</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="J9" s="15" t="s">
+      <c r="J9" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="L9" s="16" t="s">
+      <c r="L9" s="17" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1103,19 +1121,19 @@
       <c r="B10" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="18" t="s">
         <v>41</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="19" t="s">
         <v>43</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="12" t="s">
         <v>45</v>
       </c>
       <c r="H10" s="7" t="s">
@@ -1134,16 +1152,16 @@
       <c r="D11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="12" t="s">
         <v>52</v>
       </c>
       <c r="I11" s="6"/>
@@ -1153,13 +1171,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="6"/>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="21" t="s">
         <v>54</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="19" t="s">
         <v>56</v>
       </c>
       <c r="F12" s="7" t="s">
@@ -1178,13 +1196,13 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="6"/>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="18" t="s">
         <v>61</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="19" t="s">
         <v>63</v>
       </c>
       <c r="F13" s="6" t="s">
@@ -1209,7 +1227,7 @@
       <c r="D14" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="19" t="s">
         <v>70</v>
       </c>
       <c r="F14" s="6" t="s">
@@ -1234,7 +1252,7 @@
       <c r="D15" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="19" t="s">
         <v>77</v>
       </c>
       <c r="F15" s="6" t="s">
@@ -1256,10 +1274,10 @@
       <c r="C16" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="19" t="s">
         <v>84</v>
       </c>
       <c r="F16" s="6" t="s">
@@ -1278,13 +1296,13 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="6"/>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="18" t="s">
         <v>88</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="19" t="s">
         <v>90</v>
       </c>
       <c r="F17" s="6" t="s">
@@ -1309,7 +1327,7 @@
       <c r="D18" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="19" t="s">
         <v>97</v>
       </c>
       <c r="F18" s="7" t="s">
@@ -1331,19 +1349,19 @@
       <c r="C19" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="19" t="s">
         <v>104</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="H19" s="20" t="s">
+      <c r="H19" s="23" t="s">
         <v>107</v>
       </c>
       <c r="I19" s="6"/>
@@ -1353,19 +1371,19 @@
     </row>
     <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="6"/>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="18" t="s">
         <v>109</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="19" t="s">
         <v>111</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G20" s="20" t="s">
+      <c r="G20" s="23" t="s">
         <v>113</v>
       </c>
       <c r="H20" s="6" t="s">
@@ -1378,17 +1396,17 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="6"/>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="18" t="s">
         <v>116</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="19" t="s">
         <v>118</v>
       </c>
       <c r="F21" s="6"/>
-      <c r="G21" s="18" t="s">
+      <c r="G21" s="19" t="s">
         <v>119</v>
       </c>
       <c r="H21" s="7" t="s">
@@ -1407,13 +1425,13 @@
       <c r="D22" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="G22" s="18" t="s">
+      <c r="G22" s="19" t="s">
         <v>126</v>
       </c>
       <c r="H22" s="6" t="s">
@@ -1432,11 +1450,11 @@
       <c r="D23" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="19" t="s">
         <v>131</v>
       </c>
       <c r="F23" s="6"/>
-      <c r="G23" s="22" t="s">
+      <c r="G23" s="25" t="s">
         <v>132</v>
       </c>
       <c r="H23" s="6" t="s">
@@ -1449,7 +1467,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="6"/>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="18" t="s">
         <v>135</v>
       </c>
       <c r="D24" s="6" t="s">
@@ -1457,7 +1475,7 @@
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="18" t="s">
+      <c r="G24" s="19" t="s">
         <v>137</v>
       </c>
       <c r="H24" s="6"/>
@@ -1474,14 +1492,14 @@
       <c r="D25" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="E25" s="24" t="s">
         <v>141</v>
       </c>
       <c r="F25" s="6"/>
-      <c r="G25" s="18" t="s">
+      <c r="G25" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="H25" s="21"/>
+      <c r="H25" s="24"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6" t="s">
         <v>143</v>
@@ -1489,15 +1507,15 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="6"/>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="18" t="s">
         <v>144</v>
       </c>
       <c r="D26" s="6"/>
-      <c r="E26" s="21" t="s">
+      <c r="E26" s="24" t="s">
         <v>145</v>
       </c>
       <c r="F26" s="6"/>
-      <c r="G26" s="18" t="s">
+      <c r="G26" s="19" t="s">
         <v>146</v>
       </c>
       <c r="H26" s="6"/>
@@ -1511,12 +1529,12 @@
       <c r="C27" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="24" t="s">
         <v>149</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
-      <c r="G27" s="18" t="s">
+      <c r="G27" s="19" t="s">
         <v>150</v>
       </c>
       <c r="H27" s="6"/>
@@ -1533,7 +1551,7 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
-      <c r="G28" s="18" t="s">
+      <c r="G28" s="19" t="s">
         <v>153</v>
       </c>
       <c r="H28" s="6"/>
@@ -1548,7 +1566,7 @@
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
-      <c r="G29" s="18" t="s">
+      <c r="G29" s="19" t="s">
         <v>155</v>
       </c>
       <c r="H29" s="6"/>
@@ -1556,65 +1574,65 @@
       <c r="J29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="G30" s="18" t="s">
+      <c r="G30" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="J30" s="21" t="s">
+      <c r="J30" s="24" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="G31" s="18" t="s">
+      <c r="G31" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="J31" s="21" t="s">
+      <c r="J31" s="24" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="G32" s="22" t="s">
+      <c r="G32" s="25" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="G33" s="18" t="s">
+      <c r="G33" s="19" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="27" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G35" s="25" t="s">
+      <c r="G35" s="28" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G36" s="25" t="s">
+      <c r="G36" s="28" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G37" s="21" t="s">
+      <c r="G37" s="24" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G38" s="21" t="s">
+      <c r="G38" s="24" t="s">
         <v>169</v>
       </c>
     </row>
